--- a/spreadsheet/blob_storage_security_checklist.ko.xlsx
+++ b/spreadsheet/blob_storage_security_checklist.ko.xlsx
@@ -2504,7 +2504,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>새로 만든 저장소 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등이 수행됩니다. 모두 사용할 수 있습니다. 구독에 클래식 배포 모델을 사용하는 이전 저장소 계정이 없는지 확인</t>
+          <t>새로 만든 저장소 계정은 ARM 배포 모델을 사용하여 만들어지므로 RBAC, 감사 등을 모두 사용할 수 있습니다. 구독에 클래식 배포 모델을 사용하는 이전 저장소 계정이 없는지 확인</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
